--- a/KH/samplestockdata3.xlsx
+++ b/KH/samplestockdata3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="22980" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <t>Stock Exchange</t>
   </si>
   <si>
-    <t>BSE</t>
-  </si>
-  <si>
     <t>Price Per Share(in Rs)</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>NSE</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,21 +400,21 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>356.23</v>
@@ -428,10 +428,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>361.31</v>
@@ -445,10 +445,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>358.12</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>357.09</v>
@@ -479,16 +479,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>353.62</v>
       </c>
       <c r="D6" s="1">
-        <v>43624</v>
+        <v>43638</v>
       </c>
       <c r="E6" s="3">
         <v>0.4513888888888889</v>
@@ -496,10 +496,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>349.56</v>
@@ -513,10 +513,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>351.43</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>350.12</v>
@@ -547,16 +547,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>348.91</v>
       </c>
       <c r="D10" s="1">
-        <v>43654</v>
+        <v>43667</v>
       </c>
       <c r="E10" s="4">
         <v>0.46527777777777773</v>
